--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_214.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_214.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[('0:00:00.560000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.880000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:36.820000', '0:00:38.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:32.320000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(58.12, 62.72), (16.82, 23.18)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>schubert-winterreise_26</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+      <c r="D14" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1068,135 +1090,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.82, 43.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.36, 5.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
